--- a/medicine/Pharmacie/Lavage_de_l'intestin/Lavage_de_l'intestin.xlsx
+++ b/medicine/Pharmacie/Lavage_de_l'intestin/Lavage_de_l'intestin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lavage_de_l%27intestin</t>
+          <t>Lavage_de_l'intestin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lavage de l'intestin, lavement de l'intestin ou irrigation du colon (ou colonique) consiste en l'injection d'un volume d'eau ou d'un autre liquide dans le côlon, au moyen d'une pompe à lavement ou d'une canule insérée dans l'anus. On ne doit pas confondre le lavement et l'administration de laxatifs liquides par voie rectale, souvent improprement dénommés « lavements ».
 Les lavements, connus alors sous le nom de clystère étaient très utilisés aux XVIIe et XVIIIe siècles, époques où l'on connaissait peu de remèdes. Les appareils pour introduire des liquides dans le gros intestin sont connus depuis l’Antiquité, mais ont probablement été utilisés au cours de la Préhistoire déjà. Aujourd’hui, les clystères continuent à être utilisés pour faire des lavements, notamment en cas de constipation.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lavage_de_l%27intestin</t>
+          <t>Lavage_de_l'intestin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Égyptiens, les Grecs et les Romains utilisaient les lavements comme moyen thérapeutique. Selon Cabanès et Witkowski tous deux docteurs du XIXe siècle, déclarent dans « les joyeux propos d'esculape » que cette technique a été pratiquée sous le règne des pharaons d’Égypte et que cette thérapie prend naissance chez les pharaons notamment à partir d'une légende selon laquelle les Égyptiens ont observé une pratique réalisée par l'oiseau ibis. En effet, il a été démontré qu'à la suite de ces observations l’oiseau injecte couramment de l'eau dans son intestin avec son bec. Il devient alors « l'incarnation » du Dieu Thot aux yeux des Égyptiens qui le considère comme le Dieu-médecin car il devient « l'inventeur » de cette pratique. L'utilisation du lavement par les Égyptiens s'est ensuite répandu grâce à Hérodote, historien, connu pour ses nombreux voyages qui lui ont permis de décrire le mode de vie de nombreux peuples en décrivant leurs croyances, leurs pratiques mais aussi leurs coutumes et d'autres pratiques propres à chacun de ces peuples. Cette thérapie s'est alors vu naître peu à peu aux yeux du monde entier qui n'a pas hésité à donner son avis sur la question de son efficacité.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lavage_de_l%27intestin</t>
+          <t>Lavage_de_l'intestin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Indications médicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un lavement intestinal peut avoir différents buts :
 soulagement mécanique de la constipation, en provoquant le ramollissement et l'expulsion des selles ;
@@ -553,7 +569,7 @@
 administration de médicaments en solution (rarement utilisé de nos jours) ;
 rétention de produits contrastants pour les radiographies (lavement baryté) ;
 prélèvement d'un échantillon vivant de flore bactérienne humaine en bactériothérapie fécale.
-préparation à l'accouchement (si l'on pense que les selles contiennent des microbes pathogènes pour l'enfant à naître ; ex : streptocoque B[1], papillomavirus humain[2] ou éventuellement SARS-CoV-2, le virus responsable de la COVID-19[3]. Le lavement en phase prodromique de l'accouchement et/ou lors de la première étape du travail peut éviter les « fuites de selles » lors de la seconde phase du travail (en diminuant alors la charge virale à la naissance si le périnée a préalablement été bien désinfecté), mais si la mère n'est pas malade, ou selon les études disponibles sur l'importance du microbiote intestinal et sur les infections néonatales autres que le SARS-CoV-2, la littérature médicale n'encourage pas son usage systématique[4]).</t>
+préparation à l'accouchement (si l'on pense que les selles contiennent des microbes pathogènes pour l'enfant à naître ; ex : streptocoque B, papillomavirus humain ou éventuellement SARS-CoV-2, le virus responsable de la COVID-19. Le lavement en phase prodromique de l'accouchement et/ou lors de la première étape du travail peut éviter les « fuites de selles » lors de la seconde phase du travail (en diminuant alors la charge virale à la naissance si le périnée a préalablement été bien désinfecté), mais si la mère n'est pas malade, ou selon les études disponibles sur l'importance du microbiote intestinal et sur les infections néonatales autres que le SARS-CoV-2, la littérature médicale n'encourage pas son usage systématique).</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lavage_de_l%27intestin</t>
+          <t>Lavage_de_l'intestin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pratique du lavement, et singulièrement l'hydrothérapie du côlon, comporte des risques : infections, endommagement de la muqueuse colique, nausées, diarrhées, irritations ou perforations de l’intestin[5] (si l'on ne fait pas attention à la qualité du liquide).
-Un cas a été signalé par la revue JAMA de décès d'un nouveau-né à la suite d'un syndrome systémique induit par l'absorption de magnésium via un lavement intestinal[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pratique du lavement, et singulièrement l'hydrothérapie du côlon, comporte des risques : infections, endommagement de la muqueuse colique, nausées, diarrhées, irritations ou perforations de l’intestin (si l'on ne fait pas attention à la qualité du liquide).
+Un cas a été signalé par la revue JAMA de décès d'un nouveau-né à la suite d'un syndrome systémique induit par l'absorption de magnésium via un lavement intestinal.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lavage_de_l%27intestin</t>
+          <t>Lavage_de_l'intestin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un lavement peut s'administrer de différentes façons suivant le volume requis :
 à l'aide d’une pompe à lavement. L'appareil peut facilement être utilisé de façon autonome. S’asseoir sur les toilettes ou se coucher sur le dos en position détendue puis introduire la sonde rectale de quelques centimètres. Retourner le flacon et injecter l'eau dans le gros intestin en pressant manuellement le flacon pour pomper le liquide ;
